--- a/data/ESLO/all_selected_data/comment_questions.xlsx
+++ b/data/ESLO/all_selected_data/comment_questions.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinabonan/Desktop/GitHubRepos/parameters-corpus-work/data/ESLO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinabonan/Desktop/GitHubRepos/parameters-corpus-work/data/ESLO/all_selected_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD6CF6B-C787-F741-8019-A897A3213432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA92EB72-4635-1F40-9DD5-B1FB0C39D566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-62760" yWindow="-10300" windowWidth="54100" windowHeight="27600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-68620" yWindow="-10300" windowWidth="29200" windowHeight="27600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$Q$35</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$Q$35</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$Q$35</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$Q$35</definedName>
-  </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId3"/>
-    <pivotCache cacheId="23" r:id="rId4"/>
+    <pivotCache cacheId="32" r:id="rId3"/>
+    <pivotCache cacheId="33" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12578" uniqueCount="2374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12606" uniqueCount="2374">
   <si>
     <t>recherche</t>
   </si>
@@ -7889,7 +7883,7 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent6"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -7972,9 +7966,7 @@
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="60000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -8052,6 +8044,82 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
@@ -8155,6 +8223,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DA50-334D-B388-D4CD85012139}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -8175,6 +8248,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DA50-334D-B388-D4CD85012139}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -8195,6 +8273,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-DA50-334D-B388-D4CD85012139}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -8215,6 +8298,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-DA50-334D-B388-D4CD85012139}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -9091,6 +9179,484 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:pattFill prst="pct75">
+              <a:fgClr>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-0.10543343591849497"/>
+              <c:y val="0.10845022419425367"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:pattFill prst="pct75">
+              <a:fgClr>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="0.15578969964091305"/>
+              <c:y val="-0.13903803056617259"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:pattFill prst="pct75">
+              <a:fgClr>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="0.16048494238042679"/>
+              <c:y val="-0.20880193413870438"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:pattFill prst="pct75">
+              <a:fgClr>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="0.11935686336729764"/>
+              <c:y val="-0.12700835882996958"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:pattFill prst="pct75">
+              <a:fgClr>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout>
+                <c:manualLayout>
+                  <c:w val="6.6891902927526961E-2"/>
+                  <c:h val="6.1728694984808416E-2"/>
+                </c:manualLayout>
+              </c15:layout>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
     <c:view3D>
       <c:rotX val="50"/>
       <c:rotY val="0"/>
@@ -9192,6 +9758,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C5F8-5147-BB65-AB7C1CDC8AC0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -9212,6 +9783,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C5F8-5147-BB65-AB7C1CDC8AC0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -9309,6 +9885,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-C5F8-5147-BB65-AB7C1CDC8AC0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -17847,7 +18428,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{204E7425-8E4B-1042-9185-6D34F12ED549}" name="PivotTable3" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{204E7425-8E4B-1042-9185-6D34F12ED549}" name="PivotTable3" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="Q62:R72" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -17911,12 +18492,126 @@
   <dataFields count="1">
     <dataField name="Count of in situ" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="9">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -17935,7 +18630,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BA8509B-E56B-A44A-B7BE-10AFB21FABF8}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BA8509B-E56B-A44A-B7BE-10AFB21FABF8}" name="PivotTable2" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="Q39:R49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -17998,7 +18693,7 @@
   <dataFields count="1">
     <dataField name="Count of ex situ" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="5">
+  <chartFormats count="9">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -18058,6 +18753,66 @@
           </reference>
           <reference field="1" count="1" selected="0">
             <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -18396,10 +19151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R1400"/>
+  <dimension ref="A1:AU1400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N15" zoomScale="117" workbookViewId="0">
-      <selection activeCell="AQ46" sqref="AQ46"/>
+    <sheetView tabSelected="1" topLeftCell="AE24" zoomScale="117" workbookViewId="0">
+      <selection activeCell="AS72" sqref="AS72:AU73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18408,7 +19163,7 @@
     <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -18440,7 +19195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -18472,7 +19227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -18504,7 +19259,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -18536,7 +19291,7 @@
         <v>302683</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -18568,7 +19323,7 @@
         <v>785852</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -18600,7 +19355,7 @@
         <v>1486866</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -18632,7 +19387,7 @@
         <v>4021551</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -18664,7 +19419,7 @@
         <v>174439</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -18696,7 +19451,7 @@
         <v>436431</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -18728,7 +19483,7 @@
         <v>1471676</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -18760,7 +19515,7 @@
         <v>2015613</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -18792,7 +19547,7 @@
         <v>2683015</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -18823,8 +19578,17 @@
       <c r="J13">
         <v>3518536</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="AS13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU13">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -18855,8 +19619,17 @@
       <c r="J14">
         <v>4241962</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="AS14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -18887,8 +19660,17 @@
       <c r="J15">
         <v>2478014</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="AS15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -18919,8 +19701,17 @@
       <c r="J16">
         <v>2844024</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="AS16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU16">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -18951,8 +19742,17 @@
       <c r="J17">
         <v>3903907</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="AS17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -18984,7 +19784,7 @@
         <v>375508</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -19016,7 +19816,7 @@
         <v>934368</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -19048,7 +19848,7 @@
         <v>1457805</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -19080,7 +19880,7 @@
         <v>2318222</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -19112,7 +19912,7 @@
         <v>2619429</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -19144,7 +19944,7 @@
         <v>372425</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -19176,7 +19976,7 @@
         <v>1084769</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -19208,7 +20008,7 @@
         <v>1780596</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -19240,7 +20040,7 @@
         <v>1821636</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -19272,7 +20072,7 @@
         <v>2384991</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -19304,7 +20104,7 @@
         <v>2470981</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -19336,7 +20136,7 @@
         <v>1071980</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -19368,7 +20168,7 @@
         <v>1925982</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -19400,7 +20200,7 @@
         <v>1936137</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -19432,7 +20232,7 @@
         <v>2958348</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -19464,7 +20264,7 @@
         <v>3363541</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -19495,8 +20295,17 @@
       <c r="J34">
         <v>2462593</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AS34" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -19527,8 +20336,17 @@
       <c r="J35">
         <v>4863108</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AS35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -19560,7 +20378,7 @@
         <v>5139460</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -19595,7 +20413,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -19627,7 +20445,7 @@
         <v>229397</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -19665,7 +20483,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -19703,7 +20521,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -19741,7 +20559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -19779,7 +20597,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -19817,7 +20635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -19855,7 +20673,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -19893,7 +20711,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -19931,7 +20749,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -19969,7 +20787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -20007,7 +20825,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -20044,8 +20862,17 @@
       <c r="R49" s="4">
         <v>903</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AS49" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU49">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -20076,8 +20903,17 @@
       <c r="J50">
         <v>3239907</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AS50" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -20108,8 +20944,17 @@
       <c r="J51">
         <v>3329981</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AS51" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU51">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -20140,8 +20985,17 @@
       <c r="J52">
         <v>3537988</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AS52" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU52">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -20172,8 +21026,17 @@
       <c r="J53">
         <v>3628797</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AS53" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU53">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -20205,7 +21068,7 @@
         <v>265191</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -20237,7 +21100,7 @@
         <v>1473469</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -20269,7 +21132,7 @@
         <v>3025281</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -20301,7 +21164,7 @@
         <v>4902973</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -20333,7 +21196,7 @@
         <v>4906443</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -20365,7 +21228,7 @@
         <v>4910488</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -20400,7 +21263,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -20432,7 +21295,7 @@
         <v>5494873</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -20470,7 +21333,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -20508,7 +21371,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -20546,7 +21409,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -20584,7 +21447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -20622,7 +21485,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -20660,7 +21523,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -20698,7 +21561,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -20736,7 +21599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -20774,7 +21637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -20812,7 +21675,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -20849,8 +21712,17 @@
       <c r="R72" s="4">
         <v>491</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AS72" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT72" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -20881,8 +21753,17 @@
       <c r="J73">
         <v>29850</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AS73" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT73" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -20914,7 +21795,7 @@
         <v>2249189</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -20946,7 +21827,7 @@
         <v>2257626</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -20978,7 +21859,7 @@
         <v>330603</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -21010,7 +21891,7 @@
         <v>1237787</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -21042,7 +21923,7 @@
         <v>1524310</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -21074,7 +21955,7 @@
         <v>1752997</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1</v>
       </c>

--- a/data/ESLO/all_selected_data/comment_questions.xlsx
+++ b/data/ESLO/all_selected_data/comment_questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinabonan/Desktop/GitHubRepos/parameters-corpus-work/data/ESLO/all_selected_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA92EB72-4635-1F40-9DD5-B1FB0C39D566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A50BAFF-EF59-B847-ABD7-C4B11A7C4650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-68620" yWindow="-10300" windowWidth="29200" windowHeight="27600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12606" uniqueCount="2374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12602" uniqueCount="2374">
   <si>
     <t>recherche</t>
   </si>
@@ -10263,6 +10263,1456 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5BFB-DE48-A042-D972EFFAAF2D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-5BFB-DE48-A042-D972EFFAAF2D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5BFB-DE48-A042-D972EFFAAF2D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-5BFB-DE48-A042-D972EFFAAF2D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5BFB-DE48-A042-D972EFFAAF2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5BFB-DE48-A042-D972EFFAAF2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5BFB-DE48-A042-D972EFFAAF2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5BFB-DE48-A042-D972EFFAAF2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$AS$13:$AT$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>est-ce que</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>VS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SV</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>SV</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ex situ</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ex situ</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>ex situ</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>in situ</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AU$13:$AU$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5BFB-DE48-A042-D972EFFAAF2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1CAD-8548-AD96-395808CA416F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-1CAD-8548-AD96-395808CA416F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1CAD-8548-AD96-395808CA416F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-1CAD-8548-AD96-395808CA416F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-1CAD-8548-AD96-395808CA416F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-1CAD-8548-AD96-395808CA416F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.6410354722880416E-2"/>
+                  <c:y val="0.10613970271718703"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-1CAD-8548-AD96-395808CA416F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-1CAD-8548-AD96-395808CA416F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$AS$49:$AT$52</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>est-ce que</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>VS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SV</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>SV</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ex situ</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ex situ</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>ex situ</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>in situ</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AU$49:$AU$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1CAD-8548-AD96-395808CA416F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10384,6 +11834,126 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12631,6 +14201,1661 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="263">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:innerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d contourW="19050" prstMaterial="flat">
+        <a:contourClr>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="263">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:innerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d contourW="19050" prstMaterial="flat">
+        <a:contourClr>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -12772,6 +15997,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>655623</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>175193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>10854</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>184529</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EA66D4F-ACD4-BF7E-4A0B-8151CB563CFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>666477</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>12373</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>10854</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>195384</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E30691FA-2633-E685-86EF-CD0C404CFA44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>15196</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>23229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>651282</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>32564</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5669EDC5-C430-FA4C-F9A3-6B9571760904}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19153,8 +22486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU1400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE24" zoomScale="117" workbookViewId="0">
-      <selection activeCell="AS72" sqref="AS72:AU73"/>
+    <sheetView tabSelected="1" topLeftCell="AK3" zoomScale="117" workbookViewId="0">
+      <selection activeCell="AW34" sqref="AW34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19623,10 +22956,10 @@
         <v>5</v>
       </c>
       <c r="AT14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU14">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.2">
@@ -19664,10 +22997,10 @@
         <v>5</v>
       </c>
       <c r="AT15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AU15">
-        <v>144</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.2">
@@ -19702,16 +23035,16 @@
         <v>2844024</v>
       </c>
       <c r="AS16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT16" t="s">
         <v>8</v>
       </c>
       <c r="AU16">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -19742,17 +23075,8 @@
       <c r="J17">
         <v>3903907</v>
       </c>
-      <c r="AS17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU17">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -19784,7 +23108,7 @@
         <v>375508</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -19816,7 +23140,7 @@
         <v>934368</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -19848,7 +23172,7 @@
         <v>1457805</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -19880,7 +23204,7 @@
         <v>2318222</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -19912,7 +23236,7 @@
         <v>2619429</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -19944,7 +23268,7 @@
         <v>372425</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -19976,7 +23300,7 @@
         <v>1084769</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -20008,7 +23332,7 @@
         <v>1780596</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -20040,7 +23364,7 @@
         <v>1821636</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -20072,7 +23396,7 @@
         <v>2384991</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -20104,7 +23428,7 @@
         <v>2470981</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -20136,7 +23460,7 @@
         <v>1071980</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -20168,7 +23492,7 @@
         <v>1925982</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -20200,7 +23524,7 @@
         <v>1936137</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -20907,10 +24231,10 @@
         <v>5</v>
       </c>
       <c r="AT50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU50">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.2">
@@ -20948,10 +24272,10 @@
         <v>5</v>
       </c>
       <c r="AT51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AU51">
-        <v>28</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:47" x14ac:dyDescent="0.2">
@@ -20986,13 +24310,13 @@
         <v>3537988</v>
       </c>
       <c r="AS52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT52" t="s">
         <v>8</v>
       </c>
       <c r="AU52">
-        <v>257</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.2">
@@ -21025,15 +24349,6 @@
       </c>
       <c r="J53">
         <v>3628797</v>
-      </c>
-      <c r="AS53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT53" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU53">
-        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:47" x14ac:dyDescent="0.2">

--- a/data/ESLO/all_selected_data/comment_questions.xlsx
+++ b/data/ESLO/all_selected_data/comment_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinabonan/Desktop/GitHubRepos/parameters-corpus-work/data/ESLO/all_selected_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A50BAFF-EF59-B847-ABD7-C4B11A7C4650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87633FA-B0A6-7F4E-A041-55DF0398E0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-68620" yWindow="-10300" windowWidth="29200" windowHeight="27600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60960" yWindow="-8060" windowWidth="29200" windowHeight="27600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11560,7 +11560,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -11578,7 +11578,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="30"/>
+      <c:rotX val="50"/>
       <c:rotY val="0"/>
       <c:depthPercent val="100"/>
       <c:rAngAx val="0"/>
@@ -11620,14 +11620,283 @@
       <c:layout/>
       <c:pie3DChart>
         <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1977-FC4D-A298-6A18B9F26E3B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-1977-FC4D-A298-6A18B9F26E3B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-1977-FC4D-A298-6A18B9F26E3B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-1977-FC4D-A298-6A18B9F26E3B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$AS$34:$AT$35</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>cleft</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>cleft</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ex situ</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>in situ</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AU$34:$AU$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1977-FC4D-A298-6A18B9F26E3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
       </c:pie3DChart>
       <c:spPr>
@@ -11638,8 +11907,65 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11653,7 +11979,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -11668,7 +11994,338 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B084-0040-8C58-2D174E783747}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-B084-0040-8C58-2D174E783747}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-B084-0040-8C58-2D174E783747}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-B084-0040-8C58-2D174E783747}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$AS$72:$AT$73</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>cleft</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>cleft</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ex situ</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>in situ</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AU$72:$AU$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B084-0040-8C58-2D174E783747}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -11954,6 +12611,46 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -15338,18 +16035,18 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="263">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -15362,11 +16059,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -15395,51 +16092,89 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <cs:styleClr val="auto"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
           </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -15447,28 +16182,57 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400">
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
       </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:innerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d contourW="19050" prstMaterial="flat">
+        <a:contourClr>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:contourClr>
+      </a:sp3d>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -15490,10 +16254,8 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -15501,14 +16263,17 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -15538,15 +16303,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -15556,7 +16319,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -15565,14 +16328,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -15581,10 +16343,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -15600,10 +16362,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -15619,40 +16381,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -15665,20 +16402,38 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:gridlineMinor>
   <cs:hiLoLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -15690,17 +16445,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -15710,8 +16464,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -15749,10 +16503,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -15773,7 +16527,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -15782,14 +16536,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -15810,20 +16563,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -15837,9 +16589,57 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="263">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -15847,11 +16647,525 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:innerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d contourW="19050" prstMaterial="flat">
+        <a:contourClr>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -16105,6 +17419,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>655624</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>1520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>390769</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>43419</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FECD233C-4756-5074-DD61-0A7D33E9476D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22486,8 +23836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU1400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK3" zoomScale="117" workbookViewId="0">
-      <selection activeCell="AW34" sqref="AW34"/>
+    <sheetView tabSelected="1" topLeftCell="AK26" zoomScale="117" workbookViewId="0">
+      <selection activeCell="BB82" sqref="BB82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/ESLO/all_selected_data/comment_questions.xlsx
+++ b/data/ESLO/all_selected_data/comment_questions.xlsx
@@ -1,31 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinabonan/Desktop/GitHubRepos/parameters-corpus-work/data/ESLO/all_selected_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F5D662-49D2-2145-ABA7-0244BAED1C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9691A7E4-7883-304D-BFB1-2E1D4FEDCB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33860" yWindow="-10300" windowWidth="29200" windowHeight="27600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="84" r:id="rId3"/>
-    <pivotCache cacheId="89" r:id="rId4"/>
+    <pivotCache cacheId="25" r:id="rId3"/>
+    <pivotCache cacheId="26" r:id="rId4"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12601" uniqueCount="2373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12621" uniqueCount="2380">
   <si>
     <t>recherche</t>
   </si>
@@ -7144,6 +7157,27 @@
   </si>
   <si>
     <t>Count of in situ</t>
+  </si>
+  <si>
+    <t>all wh-elements</t>
+  </si>
+  <si>
+    <t>ou</t>
+  </si>
+  <si>
+    <t>quand</t>
+  </si>
+  <si>
+    <t>quiO</t>
+  </si>
+  <si>
+    <t>quoiO</t>
+  </si>
+  <si>
+    <t>eslo1</t>
+  </si>
+  <si>
+    <t>eslo2</t>
   </si>
 </sst>
 </file>
@@ -7660,6 +7694,556 @@
       </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>ESLO 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EFF1-6549-A858-264CCFF41A45}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-EFF1-6549-A858-264CCFF41A45}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-EFF1-6549-A858-264CCFF41A45}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-EFF1-6549-A858-264CCFF41A45}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-EFF1-6549-A858-264CCFF41A45}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-EFF1-6549-A858-264CCFF41A45}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$C$10:$D$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>VS</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>SV</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SV</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ex situ</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ex situ</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>in situ</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$10:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EFF1-6549-A858-264CCFF41A45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -10747,20 +11331,17 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$AS$13:$AT$16</c:f>
+              <c:f>Sheet1!$AS$14:$AT$16</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>est-ce que</c:v>
+                    <c:v>VS</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>VS</c:v>
+                    <c:v>SV</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>SV</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
                     <c:v>SV</c:v>
                   </c:pt>
                 </c:lvl>
@@ -10772,9 +11353,6 @@
                     <c:v>ex situ</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>ex situ</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
                     <c:v>in situ</c:v>
                   </c:pt>
                 </c:lvl>
@@ -10783,20 +11361,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AU$13:$AU$16</c:f>
+              <c:f>Sheet1!$AU$14:$AU$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>286</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
@@ -11406,20 +11981,17 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$AS$49:$AT$52</c:f>
+              <c:f>Sheet1!$AS$50:$AT$52</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>est-ce que</c:v>
+                    <c:v>VS</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>VS</c:v>
+                    <c:v>SV</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>SV</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
                     <c:v>SV</c:v>
                   </c:pt>
                 </c:lvl>
@@ -11431,9 +12003,6 @@
                     <c:v>ex situ</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>ex situ</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
                     <c:v>in situ</c:v>
                   </c:pt>
                 </c:lvl>
@@ -11442,20 +12011,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AU$49:$AU$52</c:f>
+              <c:f>Sheet1!$AU$50:$AU$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>155</c:v>
                 </c:pt>
               </c:numCache>
@@ -12410,7 +12976,597 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>eslo 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C99D-064E-8C76-C8841A409623}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-C99D-064E-8C76-C8841A409623}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C99D-064E-8C76-C8841A409623}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-C99D-064E-8C76-C8841A409623}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-C99D-064E-8C76-C8841A409623}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-C99D-064E-8C76-C8841A409623}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$C$7:$D$9</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>VS</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>SV</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SV</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ex situ</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ex situ</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>in situ</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$7:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C99D-064E-8C76-C8841A409623}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12691,6 +13847,46 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13229,6 +14425,574 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="263">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:innerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d contourW="19050" prstMaterial="flat">
+        <a:contourClr>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -17210,6 +18974,574 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="263">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:innerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d contourW="19050" prstMaterial="flat">
+        <a:contourClr>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -17503,6 +19835,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>806173</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>160683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>408608</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB27944-1702-C511-6D45-C5863B9A85F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>826880</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>8836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>429315</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>46383</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0535F6B-3497-5A9E-E0D0-37295B9EF941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44872.134906018517" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="903" xr:uid="{A1C74A3C-796A-EA4C-9D62-DD7E31837565}">
   <cacheSource type="worksheet">
@@ -23151,206 +25560,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{204E7425-8E4B-1042-9185-6D34F12ED549}" name="PivotTable3" cacheId="89" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="Q62:R71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of in situ" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="9">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BA8509B-E56B-A44A-B7BE-10AFB21FABF8}" name="PivotTable2" cacheId="84" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BA8509B-E56B-A44A-B7BE-10AFB21FABF8}" name="PivotTable2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="Q39:R49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -23530,6 +25740,205 @@
           </reference>
           <reference field="0" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{204E7425-8E4B-1042-9185-6D34F12ED549}" name="PivotTable3" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="Q62:R71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of in situ" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="9">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
           </reference>
           <reference field="1" count="1" selected="0">
             <x v="4"/>
@@ -23873,8 +26282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU1400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L29" zoomScale="143" workbookViewId="0">
-      <selection activeCell="Q62" sqref="Q62"/>
+    <sheetView topLeftCell="AG41" zoomScale="81" workbookViewId="0">
+      <selection activeCell="AS14" sqref="AS14:AU16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -68910,12 +71319,206 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74E1468-0A0A-FA48-BA8A-55E575456249}">
-  <dimension ref="A1"/>
+  <dimension ref="B4:J12"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2376</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>2378</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>144</v>
+      </c>
+      <c r="F7">
+        <v>41</v>
+      </c>
+      <c r="G7">
+        <v>62</v>
+      </c>
+      <c r="H7">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>90</v>
+      </c>
+      <c r="J7">
+        <f>SUM(E7:I7)</f>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>398</v>
+      </c>
+      <c r="F8">
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>102</v>
+      </c>
+      <c r="J8">
+        <f>SUM(E8:I8)</f>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>37</v>
+      </c>
+      <c r="F9">
+        <v>72</v>
+      </c>
+      <c r="G9">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>217</v>
+      </c>
+      <c r="J9">
+        <f>SUM(E9:I9)</f>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <f>SUM(E10:I10)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>257</v>
+      </c>
+      <c r="F11">
+        <v>35</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>22</v>
+      </c>
+      <c r="J11">
+        <f>SUM(E11:I11)</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>155</v>
+      </c>
+      <c r="F12">
+        <v>260</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>19</v>
+      </c>
+      <c r="I12">
+        <v>517</v>
+      </c>
+      <c r="J12">
+        <f>SUM(E12:I12)</f>
+        <v>981</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/ESLO/all_selected_data/comment_questions.xlsx
+++ b/data/ESLO/all_selected_data/comment_questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinabonan/Desktop/GitHubRepos/parameters-corpus-work/data/ESLO/all_selected_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9691A7E4-7883-304D-BFB1-2E1D4FEDCB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DAB1AA-1F93-8240-918B-DC852DADC3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId3"/>
-    <pivotCache cacheId="26" r:id="rId4"/>
+    <pivotCache cacheId="38" r:id="rId3"/>
+    <pivotCache cacheId="39" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12621" uniqueCount="2380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12622" uniqueCount="2381">
   <si>
     <t>recherche</t>
   </si>
@@ -7178,6 +7178,9 @@
   </si>
   <si>
     <t>eslo2</t>
+  </si>
+  <si>
+    <t>quiS</t>
   </si>
 </sst>
 </file>
@@ -8105,6 +8108,27 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:alpha val="90000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="4F81BD"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="4F81BD">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -8143,7 +8167,7 @@
                     <c:v>SV</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>SV</c:v>
+                    <c:v>est-ce que</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -8154,7 +8178,7 @@
                     <c:v>ex situ</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>in situ</c:v>
+                    <c:v>ex situ</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -8162,18 +8186,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$J$10:$J$12</c:f>
+              <c:f>Sheet2!$K$10:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>336</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>981</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13384,6 +13408,27 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:alpha val="90000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="4F81BD"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="4F81BD">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -13422,7 +13467,7 @@
                     <c:v>SV</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>SV</c:v>
+                    <c:v>est-ce que</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -13433,7 +13478,7 @@
                     <c:v>ex situ</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>in situ</c:v>
+                    <c:v>ex situ</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -13441,18 +13486,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$J$7:$J$9</c:f>
+              <c:f>Sheet2!$K$7:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>351</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>560</c:v>
+                  <c:v>802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>377</c:v>
+                  <c:v>836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25560,7 +25605,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BA8509B-E56B-A44A-B7BE-10AFB21FABF8}" name="PivotTable2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BA8509B-E56B-A44A-B7BE-10AFB21FABF8}" name="PivotTable2" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="Q39:R49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -25761,7 +25806,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{204E7425-8E4B-1042-9185-6D34F12ED549}" name="PivotTable3" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{204E7425-8E4B-1042-9185-6D34F12ED549}" name="PivotTable3" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="Q62:R71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -26282,8 +26327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU1400"/>
   <sheetViews>
-    <sheetView topLeftCell="AG41" zoomScale="81" workbookViewId="0">
-      <selection activeCell="AS14" sqref="AS14:AU16"/>
+    <sheetView topLeftCell="AF20" zoomScale="81" workbookViewId="0">
+      <selection activeCell="AT19" sqref="AT19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -71319,20 +71364,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74E1468-0A0A-FA48-BA8A-55E575456249}">
-  <dimension ref="B4:J12"/>
+  <dimension ref="B4:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>2373</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
         <v>3</v>
       </c>
@@ -71343,13 +71388,16 @@
         <v>2375</v>
       </c>
       <c r="H6" t="s">
+        <v>2380</v>
+      </c>
+      <c r="I6" t="s">
         <v>2376</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>2377</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>2378</v>
       </c>
@@ -71369,17 +71417,20 @@
         <v>62</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I7">
+        <v>14</v>
+      </c>
+      <c r="J7">
         <v>90</v>
       </c>
-      <c r="J7">
-        <f>SUM(E7:I7)</f>
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <f>SUM(E7:J7)</f>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -71396,44 +71447,50 @@
         <v>17</v>
       </c>
       <c r="H8">
+        <v>242</v>
+      </c>
+      <c r="I8">
         <v>10</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>102</v>
       </c>
-      <c r="J8">
-        <f>SUM(E8:I8)</f>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <f>SUM(E8:J8)</f>
+        <v>802</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>37</v>
+        <v>286</v>
       </c>
       <c r="F9">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="G9">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H9">
+        <v>167</v>
+      </c>
+      <c r="I9">
         <v>13</v>
       </c>
-      <c r="I9">
-        <v>217</v>
-      </c>
       <c r="J9">
-        <f>SUM(E9:I9)</f>
-        <v>377</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="K9">
+        <f>SUM(E9:J9)</f>
+        <v>836</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>2379</v>
       </c>
@@ -71453,17 +71510,20 @@
         <v>4</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>2</v>
       </c>
-      <c r="J10">
-        <f>SUM(E10:I10)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <f>SUM(E10:J10)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>5</v>
       </c>
@@ -71480,41 +71540,47 @@
         <v>15</v>
       </c>
       <c r="H11">
+        <v>63</v>
+      </c>
+      <c r="I11">
         <v>7</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>22</v>
       </c>
-      <c r="J11">
-        <f>SUM(E11:I11)</f>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <f>SUM(E11:J11)</f>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="F12">
-        <v>260</v>
+        <v>35</v>
       </c>
       <c r="G12">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I12">
-        <v>517</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <f>SUM(E12:I12)</f>
-        <v>981</v>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>SUM(E12:J12)</f>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
